--- a/nGram1.xlsx
+++ b/nGram1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B215"/>
+  <dimension ref="A1:B213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7430</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="8">
@@ -678,21 +678,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>weather</t>
+          <t>vinyl</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vinyl</t>
+          <t>weather</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27">
@@ -792,43 +792,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>tape</t>
+          <t>flooring</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>after</t>
+          <t>tape</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>liquid</t>
+          <t>after</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>walls</t>
+          <t>liquid</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>flooring</t>
+          <t>walls</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1318,27 +1318,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>transparent</t>
+          <t>like</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>that</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>dunlop</t>
+          <t>transparent</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>densshield</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>pool</t>
+          <t>dunlop</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>swimming</t>
+          <t>densshield</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>diy</t>
+          <t>pool</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>thermaldry</t>
+          <t>swimming</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>curb</t>
+          <t>diy</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>acoustic</t>
+          <t>thermaldry</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>mildewproof</t>
+          <t>curb</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>stone</t>
+          <t>acoustic</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>garage</t>
+          <t>mildewproof</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>bathtub</t>
+          <t>stone</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2x2</t>
+          <t>garage</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>like</t>
+          <t>bathtub</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>that</t>
+          <t>2x2</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,17 +1488,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>looks</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>weatherproof</t>
+          <t>wet</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>weatherproof</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>terracotta</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>behind</t>
+          <t>terracotta</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>edging</t>
+          <t>behind</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>plastic</t>
+          <t>edging</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>mosaic</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>marble</t>
+          <t>mosaic</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>sink</t>
+          <t>marble</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>&amp;</t>
+          <t>sink</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>glover</t>
+          <t>&amp;</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>tony</t>
+          <t>glover</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>polyurethane</t>
+          <t>tony</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>shopee</t>
+          <t>polyurethane</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>sikatite</t>
+          <t>shopee</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>revela</t>
+          <t>sikatite</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>pre</t>
+          <t>revela</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>pre</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>hydroban</t>
+          <t>life</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>glazed</t>
+          <t>hydroban</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>undertile</t>
+          <t>glazed</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>rx3000</t>
+          <t>undertile</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>dumawall+</t>
+          <t>rx3000</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>seam</t>
+          <t>dumawall+</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>way</t>
+          <t>seam</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>aqua</t>
+          <t>way</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>spectratile</t>
+          <t>aqua</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>steam</t>
+          <t>spectratile</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>goboard</t>
+          <t>steam</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>veil</t>
+          <t>goboard</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>maiden's</t>
+          <t>veil</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>athena</t>
+          <t>maiden's</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>exterior</t>
+          <t>athena</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>porcelain</t>
+          <t>exterior</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>instead</t>
+          <t>porcelain</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>armstrong</t>
+          <t>instead</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>spc</t>
+          <t>armstrong</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>leaking</t>
+          <t>spc</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>livelynine</t>
+          <t>leaking</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>floating</t>
+          <t>livelynine</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>laminated</t>
+          <t>floating</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>spectra</t>
+          <t>laminated</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>chatham</t>
+          <t>spectra</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>moon</t>
+          <t>chatham</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>moon</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>half</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>mat</t>
+          <t>to</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>600x600</t>
+          <t>mat</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>canyon</t>
+          <t>600x600</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>desert</t>
+          <t>canyon</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>groutable</t>
+          <t>desert</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>wedi</t>
+          <t>groutable</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2x4</t>
+          <t>wedi</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>looks</t>
+          <t>12x24</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,17 +2038,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>2x4</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>near</t>
+          <t>wipeable</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>slate</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>wipeable</t>
+          <t>bed</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>slate</t>
+          <t>mud</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>together</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>mud</t>
+          <t>snap</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>together</t>
+          <t>self</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>snap</t>
+          <t>linoleum</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>self</t>
+          <t>groutless</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>linoleum</t>
+          <t>cork</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>groutless</t>
+          <t>dry</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>cork</t>
+          <t>thermal</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>dry</t>
+          <t>technokolla</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>thermal</t>
+          <t>hydraflex</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>technokolla</t>
+          <t>tec</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>hydraflex</t>
+          <t>sumter</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>tec</t>
+          <t>redifix</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>sumter</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>redifix</t>
+          <t>gray</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>whitfield</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>gray</t>
+          <t>msi</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>whitfield</t>
+          <t>jackoboard</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>msi</t>
+          <t>impervious</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>jackoboard</t>
+          <t>hydrathane</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>impervious</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>hydrathane</t>
+          <t>hanwood</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>white</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>hanwood</t>
+          <t>pro</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>smooth</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>pro</t>
+          <t>menards</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>smooth</t>
+          <t>dukkaboard</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>menards</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>dukkaboard</t>
+          <t>dampfix</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>ampera</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>dampfix</t>
+          <t>bondera</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ampera</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>bondera</t>
+          <t>a108</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>ansi</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>a108</t>
+          <t>absolute</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ansi</t>
+          <t>patio</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>absolute</t>
+          <t>vv032</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>patio</t>
+          <t>coffer</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>vv032</t>
+          <t>icon</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>coretec</t>
+          <t>genesis</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>coffer</t>
+          <t>concrete</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>icon</t>
+          <t>sedona</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>genesis</t>
+          <t>coretec</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>concrete</t>
+          <t>blonde</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>sedona</t>
+          <t>bayhill</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>blonde</t>
+          <t>everlife</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>bayhill</t>
+          <t>retile</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,30 +2558,10 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>everlife</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>retile</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
         <v>0</v>
       </c>
     </row>
